--- a/src/java/resources/excel_input_templates/Journal_Entry_RU_Template.xlsx
+++ b/src/java/resources/excel_input_templates/Journal_Entry_RU_Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kgraves\Documents\NetBeansProjects\FlowServe\src\java\resources\excel_input_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257B4989-3758-4D9F-8D30-5A7C7D69ED29}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B708862-3014-4838-BC99-052E95BC896B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="48540" windowHeight="25695" xr2:uid="{1CDBC8B3-65AE-493A-BD20-5591BD805E26}"/>
   </bookViews>
@@ -1876,11 +1876,9 @@
       <c r="D23" s="52"/>
       <c r="E23" s="52"/>
       <c r="F23" s="59">
-        <f>F42</f>
         <v>0</v>
       </c>
       <c r="G23" s="60">
-        <f>G42</f>
         <v>0</v>
       </c>
       <c r="H23" s="2"/>
@@ -1903,11 +1901,9 @@
       <c r="D24" s="52"/>
       <c r="E24" s="52"/>
       <c r="F24" s="59">
-        <f>F43</f>
         <v>0</v>
       </c>
       <c r="G24" s="60">
-        <f>G43</f>
         <v>0</v>
       </c>
       <c r="H24" s="2"/>
@@ -1930,11 +1926,9 @@
       <c r="D25" s="52"/>
       <c r="E25" s="52"/>
       <c r="F25" s="59">
-        <f t="shared" ref="F25:G26" si="1">F44</f>
         <v>0</v>
       </c>
       <c r="G25" s="60">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H25" s="2"/>
@@ -1957,11 +1951,9 @@
       <c r="D26" s="52"/>
       <c r="E26" s="52"/>
       <c r="F26" s="59">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G26" s="60">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H26" s="2"/>
@@ -1984,11 +1976,9 @@
       <c r="D27" s="52"/>
       <c r="E27" s="52"/>
       <c r="F27" s="59">
-        <f>F49</f>
         <v>0</v>
       </c>
       <c r="G27" s="60">
-        <f t="shared" ref="G27:G29" si="2">G49</f>
         <v>0</v>
       </c>
       <c r="H27" s="2"/>
@@ -2011,11 +2001,9 @@
       <c r="D28" s="52"/>
       <c r="E28" s="52"/>
       <c r="F28" s="59">
-        <f t="shared" ref="F28:F29" si="3">F50</f>
         <v>0</v>
       </c>
       <c r="G28" s="60">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H28" s="2"/>
@@ -2038,11 +2026,9 @@
       <c r="D29" s="52"/>
       <c r="E29" s="52"/>
       <c r="F29" s="61">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G29" s="62">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H29" s="2"/>
@@ -2065,11 +2051,9 @@
       <c r="D30" s="52"/>
       <c r="E30" s="52"/>
       <c r="F30" s="59">
-        <f>F54</f>
         <v>0</v>
       </c>
       <c r="G30" s="60">
-        <f>G54</f>
         <v>0</v>
       </c>
       <c r="H30" s="2"/>
@@ -2092,11 +2076,9 @@
       <c r="D31" s="52"/>
       <c r="E31" s="52"/>
       <c r="F31" s="59">
-        <f>F58</f>
         <v>0</v>
       </c>
       <c r="G31" s="60">
-        <f>G58</f>
         <v>0</v>
       </c>
       <c r="H31" s="2"/>
@@ -2119,11 +2101,9 @@
       <c r="D32" s="52"/>
       <c r="E32" s="52"/>
       <c r="F32" s="61">
-        <f>IF((F46+F55+F59+F70+F75+F82-G46-G55-G59-G70-G75-G82)&gt;0,(F46+F55+F59+F70+F75+F82-G46-G55-G59-G70-G75-G82),0)</f>
         <v>0</v>
       </c>
       <c r="G32" s="62">
-        <f>IF((F46+F55+F59+F70+F75+F82-G46-G55-G59-G70-G75-G82)&lt;0,-(F46+F55+F59+F70+F75+F82-G46-G55-G59-G70-G75-G82),0)</f>
         <v>0</v>
       </c>
       <c r="H32" s="2"/>
@@ -2146,11 +2126,9 @@
       <c r="D33" s="52"/>
       <c r="E33" s="52"/>
       <c r="F33" s="59">
-        <f>F62</f>
         <v>0</v>
       </c>
       <c r="G33" s="60">
-        <f t="shared" ref="G33:G34" si="4">G62</f>
         <v>0</v>
       </c>
       <c r="H33" s="2"/>
@@ -2173,11 +2151,9 @@
       <c r="D34" s="52"/>
       <c r="E34" s="52"/>
       <c r="F34" s="63">
-        <f t="shared" ref="F34" si="5">F63</f>
         <v>0</v>
       </c>
       <c r="G34" s="64">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H34" s="2"/>
@@ -2238,11 +2214,11 @@
         <v>69</v>
       </c>
       <c r="F37" s="70">
-        <f>ROUND(SUM(F23:F35),2)</f>
+        <f>ROUND(SUM(F23:F34),2)</f>
         <v>0</v>
       </c>
       <c r="G37" s="71">
-        <f>ROUND(SUM(G23:G35),2)</f>
+        <f>ROUND(SUM(G23:G34),2)</f>
         <v>0</v>
       </c>
       <c r="H37" s="2"/>
